--- a/output/dynamic_dataset1.xlsx
+++ b/output/dynamic_dataset1.xlsx
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>the best wallet</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>total cost</t>
   </si>
   <si>
@@ -30,10 +33,10 @@
     <t>total return</t>
   </si>
   <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>['Share-KMTG', 'Share-GHIZ', 'Share-NHWA', 'Share-UEZB', 'Share-LPDM', 'Share-MTLR', 'Share-USSR', 'Share-QKDN', 'Share-GTQK', 'Share-FKJW', 'Share-CGJM', 'Share-WPLI', 'Share-LGWG', 'Share-ZSDE', 'Share-SKKC', 'Share-QQTU', 'Share-GIAJ', 'Share-XJMO', 'Share-LRBZ', 'Share-EMOV', 'Share-HITN', 'Share-IFCP']</t>
+    <t>reported error</t>
+  </si>
+  <si>
+    <t>['Share-KMTG', 'Share-GHIZ', 'Share-NHWA', 'Share-UEZB', 'Share-LPDM', 'Share-MTLR', 'Share-USSR', 'Share-GTQK', 'Share-FKJW', 'Share-MLGM', 'Share-QLMK', 'Share-WPLI', 'Share-LGWG', 'Share-ZSDE', 'Share-SKKC', 'Share-QQTU', 'Share-GIAJ', 'Share-XJMO', 'Share-LRBZ', 'Share-KZBL', 'Share-EMOV', 'Share-IFCP']</t>
   </si>
   <si>
     <t>name</t>
@@ -69,16 +72,16 @@
     <t>Share-USSR</t>
   </si>
   <si>
-    <t>Share-QKDN</t>
-  </si>
-  <si>
     <t>Share-GTQK</t>
   </si>
   <si>
     <t>Share-FKJW</t>
   </si>
   <si>
-    <t>Share-CGJM</t>
+    <t>Share-MLGM</t>
+  </si>
+  <si>
+    <t>Share-QLMK</t>
   </si>
   <si>
     <t>Share-WPLI</t>
@@ -105,10 +108,10 @@
     <t>Share-LRBZ</t>
   </si>
   <si>
+    <t>Share-KZBL</t>
+  </si>
+  <si>
     <t>Share-EMOV</t>
-  </si>
-  <si>
-    <t>Share-HITN</t>
   </si>
   <si>
     <t>Share-IFCP</t>
@@ -481,13 +484,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,21 +506,27 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>500</v>
       </c>
       <c r="C2">
-        <v>698.526955</v>
+        <v>499.95</v>
       </c>
       <c r="D2">
-        <v>198.526955</v>
+        <v>698.4999999999999</v>
       </c>
       <c r="E2">
+        <v>198.5499999999999</v>
+      </c>
+      <c r="F2">
         <v>47</v>
       </c>
     </row>
@@ -536,324 +545,324 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>23.21</v>
       </c>
       <c r="C2">
-        <v>32.487037</v>
+        <v>32.49</v>
       </c>
       <c r="D2">
-        <v>9.277037</v>
+        <v>9.280000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>39.1692</v>
+        <v>39.17</v>
       </c>
       <c r="D3">
-        <v>11.1692</v>
+        <v>11.17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>29.18</v>
       </c>
       <c r="C4">
-        <v>40.784886</v>
+        <v>40.78</v>
       </c>
       <c r="D4">
-        <v>11.604886</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>24.87</v>
       </c>
       <c r="C5">
-        <v>34.676241</v>
+        <v>34.68</v>
       </c>
       <c r="D5">
-        <v>9.806240999999996</v>
+        <v>9.809999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>39.35</v>
       </c>
       <c r="C6">
-        <v>54.983755</v>
+        <v>54.98</v>
       </c>
       <c r="D6">
-        <v>15.633755</v>
+        <v>15.63</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>16.49</v>
       </c>
       <c r="C7">
-        <v>23.081053</v>
+        <v>23.08</v>
       </c>
       <c r="D7">
-        <v>6.591052999999999</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>25.62</v>
       </c>
       <c r="C8">
-        <v>35.755272</v>
+        <v>35.76</v>
       </c>
       <c r="D8">
-        <v>10.135272</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>28.55</v>
+        <v>15.4</v>
       </c>
       <c r="C9">
-        <v>39.744455</v>
+        <v>21.55</v>
       </c>
       <c r="D9">
-        <v>11.194455</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>15.4</v>
+        <v>21.08</v>
       </c>
       <c r="C10">
-        <v>21.5523</v>
+        <v>29.47</v>
       </c>
       <c r="D10">
-        <v>6.152299999999999</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>21.08</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
-        <v>29.46562399999999</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
-        <v>8.385623999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>17.21</v>
+        <v>17.38</v>
       </c>
       <c r="C12">
-        <v>23.97353</v>
+        <v>24.24</v>
       </c>
       <c r="D12">
-        <v>6.763529999999999</v>
+        <v>6.859999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>34.64</v>
       </c>
       <c r="C13">
-        <v>48.464824</v>
+        <v>48.46</v>
       </c>
       <c r="D13">
-        <v>13.824824</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>31.41</v>
       </c>
       <c r="C14">
-        <v>43.81695</v>
+        <v>43.82</v>
       </c>
       <c r="D14">
-        <v>12.40695</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>15.11</v>
       </c>
       <c r="C15">
-        <v>21.135868</v>
+        <v>21.14</v>
       </c>
       <c r="D15">
-        <v>6.025867999999999</v>
+        <v>6.030000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>24.87</v>
       </c>
       <c r="C16">
-        <v>34.691163</v>
+        <v>34.69</v>
       </c>
       <c r="D16">
-        <v>9.821163000000002</v>
+        <v>9.819999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>33.19</v>
       </c>
       <c r="C17">
-        <v>46.33324</v>
+        <v>46.33</v>
       </c>
       <c r="D17">
-        <v>13.14324</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>10.75</v>
       </c>
       <c r="C18">
-        <v>15.03925</v>
+        <v>15.04</v>
       </c>
       <c r="D18">
-        <v>4.289250000000001</v>
+        <v>4.289999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>9.390000000000001</v>
       </c>
       <c r="C19">
-        <v>13.144122</v>
+        <v>13.14</v>
       </c>
       <c r="D19">
-        <v>3.754121999999999</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>32.9</v>
       </c>
       <c r="C20">
-        <v>46.04355</v>
+        <v>46.04</v>
       </c>
       <c r="D20">
-        <v>13.14355</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>8.890000000000001</v>
+        <v>28.99</v>
       </c>
       <c r="C21">
-        <v>12.403328</v>
+        <v>40.34</v>
       </c>
       <c r="D21">
-        <v>3.513328</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.67</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="C22">
-        <v>0.894383</v>
+        <v>12.4</v>
       </c>
       <c r="D22">
-        <v>0.224383</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>29.23</v>
       </c>
       <c r="C23">
-        <v>40.886924</v>
+        <v>40.89</v>
       </c>
       <c r="D23">
-        <v>11.656924</v>
+        <v>11.66</v>
       </c>
     </row>
   </sheetData>
@@ -871,10 +880,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -882,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -890,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -898,7 +907,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -906,7 +915,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -914,7 +923,7 @@
         <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -922,7 +931,7 @@
         <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -930,7 +939,7 @@
         <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -938,7 +947,7 @@
         <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -946,7 +955,7 @@
         <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -954,7 +963,7 @@
         <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -962,7 +971,7 @@
         <v>195</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -970,7 +979,7 @@
         <v>236</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -978,7 +987,7 @@
         <v>254</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -986,7 +995,7 @@
         <v>288</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -994,7 +1003,7 @@
         <v>316</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1002,7 +1011,7 @@
         <v>342</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1010,7 +1019,7 @@
         <v>414</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1018,7 +1027,7 @@
         <v>425</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1026,7 +1035,7 @@
         <v>447</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1034,7 +1043,7 @@
         <v>450</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1042,7 +1051,7 @@
         <v>474</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1050,7 +1059,7 @@
         <v>517</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1058,7 +1067,7 @@
         <v>533</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1066,7 +1075,7 @@
         <v>534</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1074,7 +1083,7 @@
         <v>548</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1082,7 +1091,7 @@
         <v>552</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1090,7 +1099,7 @@
         <v>573</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1098,7 +1107,7 @@
         <v>577</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1106,7 +1115,7 @@
         <v>588</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1114,7 +1123,7 @@
         <v>623</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1122,7 +1131,7 @@
         <v>638</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1130,7 +1139,7 @@
         <v>683</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1138,7 +1147,7 @@
         <v>684</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1146,7 +1155,7 @@
         <v>692</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1154,7 +1163,7 @@
         <v>694</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1162,7 +1171,7 @@
         <v>798</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1170,7 +1179,7 @@
         <v>814</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1178,7 +1187,7 @@
         <v>817</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1186,7 +1195,7 @@
         <v>827</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1194,7 +1203,7 @@
         <v>836</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1202,7 +1211,7 @@
         <v>843</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1210,7 +1219,7 @@
         <v>895</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1218,7 +1227,7 @@
         <v>903</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1226,7 +1235,7 @@
         <v>946</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1234,7 +1243,7 @@
         <v>955</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1242,7 +1251,7 @@
         <v>979</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1250,7 +1259,7 @@
         <v>997</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/output/dynamic_dataset1.xlsx
+++ b/output/dynamic_dataset1.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nidal\Desktop\P7\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
     <sheet name="choosen stocks" sheetId="2" r:id="rId2"/>
     <sheet name="report" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -132,8 +137,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,11 +201,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -242,7 +255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,9 +287,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,6 +322,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -483,14 +498,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -521,7 +545,7 @@
         <v>499.95</v>
       </c>
       <c r="D2">
-        <v>698.4999999999999</v>
+        <v>698.49999999999989</v>
       </c>
       <c r="E2">
         <v>198.5499999999999</v>
@@ -536,14 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -557,7 +581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -568,10 +592,10 @@
         <v>32.49</v>
       </c>
       <c r="D2">
-        <v>9.280000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9.2800000000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -585,7 +609,7 @@
         <v>11.17</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -599,7 +623,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -610,10 +634,10 @@
         <v>34.68</v>
       </c>
       <c r="D5">
-        <v>9.809999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>9.8099999999999987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -627,12 +651,12 @@
         <v>15.63</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7">
-        <v>16.49</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="C7">
         <v>23.08</v>
@@ -641,7 +665,7 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -655,7 +679,7 @@
         <v>10.14</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -669,7 +693,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -680,10 +704,10 @@
         <v>29.47</v>
       </c>
       <c r="D10">
-        <v>8.390000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -697,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -708,10 +732,10 @@
         <v>24.24</v>
       </c>
       <c r="D12">
-        <v>6.859999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>6.8599999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -725,7 +749,7 @@
         <v>13.82</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -739,7 +763,7 @@
         <v>12.41</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -750,10 +774,10 @@
         <v>21.14</v>
       </c>
       <c r="D15">
-        <v>6.030000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>6.0300000000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -764,10 +788,10 @@
         <v>34.69</v>
       </c>
       <c r="D16">
-        <v>9.819999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>9.8199999999999967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -781,7 +805,7 @@
         <v>13.14</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -792,15 +816,15 @@
         <v>15.04</v>
       </c>
       <c r="D18">
-        <v>4.289999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>4.2899999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19">
-        <v>9.390000000000001</v>
+        <v>9.39</v>
       </c>
       <c r="C19">
         <v>13.14</v>
@@ -809,7 +833,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -823,7 +847,7 @@
         <v>13.14</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -831,18 +855,18 @@
         <v>28.99</v>
       </c>
       <c r="C21">
-        <v>40.34</v>
+        <v>40.340000000000003</v>
       </c>
       <c r="D21">
         <v>11.35</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22">
-        <v>8.890000000000001</v>
+        <v>8.89</v>
       </c>
       <c r="C22">
         <v>12.4</v>
@@ -851,7 +875,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -871,14 +895,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -886,311 +916,311 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>342</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>817</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>97</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>112</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>125</v>
       </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>134</v>
       </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>172</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>188</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>195</v>
       </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>236</v>
       </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>254</v>
       </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>288</v>
       </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>316</v>
       </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>342</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>414</v>
       </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>425</v>
       </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>447</v>
       </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>450</v>
       </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>474</v>
       </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>517</v>
       </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>533</v>
       </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>534</v>
       </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>548</v>
       </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>552</v>
       </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>573</v>
       </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>577</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>588</v>
       </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>623</v>
       </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>638</v>
       </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>683</v>
       </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>684</v>
       </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>692</v>
       </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>694</v>
       </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>798</v>
       </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>814</v>
       </c>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>817</v>
-      </c>
       <c r="B39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>827</v>
       </c>
@@ -1198,7 +1228,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>836</v>
       </c>
@@ -1206,7 +1236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>843</v>
       </c>
@@ -1214,7 +1244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>895</v>
       </c>
@@ -1222,7 +1252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>903</v>
       </c>
@@ -1230,7 +1260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>946</v>
       </c>
@@ -1238,7 +1268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>955</v>
       </c>
@@ -1246,7 +1276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>979</v>
       </c>
@@ -1254,7 +1284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>997</v>
       </c>
@@ -1263,6 +1293,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B48">
+    <sortCondition descending="1" ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>